--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Zhao\Downloads\Single Cell Testing Data (4)\Single Cell Testing Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kostu\Desktop\cell_qc_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{601C8C13-224B-4408-84BA-FC9E682CE610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3801F436-0F30-4231-9A98-E22B161410DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processed Data" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <definedName name="_xlchart.v1.1" hidden="1">'Processed Data'!$B$507:$B$659</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Processed Data'!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Processed Data'!$C$2:$C$659</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Processed Data'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Processed Data'!$C$2:$C$659</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Processed Data'!$B$1:$B$506</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Processed Data'!$B$507:$B$659</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Cell Number</t>
   </si>
@@ -41,13 +50,13 @@
     <t>Open Circuit Voltage [V]</t>
   </si>
   <si>
-    <t>inf</t>
+    <t>nan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,7 +599,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -628,8 +637,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{0450316B-27CD-4505-B5E9-9679DF4175F7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Internal Resistance [Ohms] 0.021958029 0.02203463 0.022499555 0.023048211 0.022286677 0.022284827 0.022507648 0.022723468 0.022092263 0.022451534 0.022060796 0.022220672 0.038972394 #NAME? 0.022352158 0.022901045 0.022288249 0.022385703 0.022352597 0.02245628 0.021992809 0.022421965 0.022114479 0.029698682 0.025970994 0.022041924 0.022444703 0.023014403 0.022075972 0.022562734 0.02209541 0.022022436 0.022294598 0.022159805 0.022366027 0.022554122 0.022426654 0.021715701 0.021935815 0.022002528 0.022534218 0.02186487 0.02546101 0.022992485 0.024179199 0.021976867 0.021956925 0.021959388 0.021536842 0.021277101 0.021708078 0.02129701 0.02206241 0.021658923 0.022238285 0.029490834 0.02192011 0.029203645 0.021850666 0.021973619 0.022019835 0.022123094 0.025860397 0.022418387 0.02224752 0.022104322 0.022120299 0.022313715 0.022537777 0.022018664 0.022440531 0.022220127 0.022060144 0.022315265 0.022158214 0.022368163 0.022196909 0.021960264 0.022003265 0.021840765 0.021683069 0.021968782 0.02165038 0.022018202 0.022202625 0.022769042 0.022315718 0.02234744 0.022058861 0.022246123 inf 0.021812799 0.021817491 0.021981182 0.022269834 0.021861214 0.021821648 0.021941517 0.022429506 0.022326916 0.022061137 0.021686093 0.022125414 0.021974237 0.022194461 0.021931232 0.021794661 0.022065328 0.022256825 0.021528337 0.0224099 0.022117532 0.023823638 0.021664152 0.022024785 0.021846849 0.021367736 0.02142033 0.021331908 0.021321027 0.021175744 0.02119416 0.022421596 0.021738496 0.021837705 0.022974323 0.021786491 0.021483327 inf 0.021773771 0.021732616 0.021536857 0.021646536 0.021737195 0.021427539 0.021393341 0.021004937 0.021700093 0.021614108 0.021785361 0.02169101 0.021897497 0.021605432 0.021545972 0.035458102 0.021697338 0.021741974 0.021208281 0.02141789 0.02147604 0.022033049 0.022208426 0.026256898 0.021687227 0.021517415 0.021645888 0.021887787 0.022018006 0.021476445 0.021847564 0.021634995 0.021299539 0.021364742 0.0214271 0.021749612 0.021850984 0.021753868 0.022052416 0.021912157 0.02194296 0.022228299 0.021867286 0.023206104 0.021774208 0.02639027 0.030592139 0.038314698 0.02335115 0.022281658 0.02195362 0.021691397 0.029689905 0.022504006 0.021561849 0.021783925 0.021700812 0.021165344 0.021832559 0.022089775 0.023075121 0.021589504 0.021882713 0.021741458 0.022002182 0.021481682 0.021600297 0.021371014 0.031653348 0.021586472 0.021754448 0.021430185 0.021980311 0.021473436 0.021910922 0.021905154 0.021944583 0.02180048 0.022236306 0.021759018 0.02192122 0.021676745 0.02187003 0.021593256 0.021704116 0.021753422 0.021645816 0.021363682 0.02171837 0.021042413 0.033507573 0.020639222 0.02064695 0.021079844 0.021610118 0.021786635 0.021652585 0.022146752 0.02179172 0.022045253 0.021820604 0.025168387 0.021626706 0.021459785 0.02106601 0.021359916 0.021718013 0.021489696 0.021687679 0.021701123 0.021621245 0.021875878 0.021914695 0.021818653 0.042497409 0.021619935 0.025670851 0.021424832 0.021167563 0.021284854 0.02132026 0.021510629 0.021778589 0.021615242 0.021749548 0.021703865 0.021781008 0.021222059 0.022538309 0.022204202 0.022060043 0.022281946 0.022500971 0.022087905 0.022298398 0.022373455 0.021936196 0.021704696 0.021413447 0.021876979 0.022402264 0.022142267 0.022353379 0.022408084 0.032720709 0.02217048 0.021967252 0.021997359 0.022094737 0.0220568 0.021622526 0.022081009 0.022149774 0.02229805 0.021752916 0.021965761 0.022471006 0.022342092 0.02207614 0.022273565 0.022039114 0.021378904 0.02085706 0.021176448 0.022095637 0.02212598 0.021927199 0.02238693 0.022486139 0.022101134 0.022020967 0.021936236 0.02220287 0.021917769 0.02153128 0.022443135 0.022134851 0.022683504 0.022339544 0.022606156 0.02234649 0.02273439 0.022106652 0.022297329 0.022548636 0.021895607 0.021625567 0.021710487 0.022060761 0.022056469 0.022280444 0.022422597 0.022038345 0.021971577 0.021720613 0.021991213 0.021227654 0.021262133 0.021084513 0.020480062 0.020584894 0.020920165 0.021488497 0.022251393 0.022414878 0.022472095 0.022057263 0.021805009 0.022288341 0.022148689 0.022227472 0.021803024 0.02189943 0.022122685 0.022034534 0.022008844 0.022147469 0.022319336 0.021887339 0.022453102 0.022177413 0.022654455 0.022300858 0.021807331 0.022184601 0.022154119 0.022171471 0.022342952 0.021946292 0.021840612 0.022214955 0.022684303 0.021966833 0.02231984 0.021991978 0.022091817 0.021525303 0.021446876 0.02145032 0.021284782 0.021491816 0.022428668 0.022457308 0.022066086 0.022218831 0.022041238 0.022068118 0.021964842 0.022154717 0.021813522 0.022247462 0.040740536 0.022447336 0.022269309 0.022547962 0.022379195 0.021841675 0.022106746 0.021941173 0.022123757 0.021839491 0.022540866 0.022071097 0.022020044 0.022519191 0.022731613 0.022017861 0.021908265 0.022317844 0.022664665 0.0223293 0.022191739 0.021999187 0.022596525 0.022416056 0.021819111 0.021549526 0.022391068 0.022039673 0.022805176 0.022009691 0.021756933 0.021551405 0.022091283 0.021448559 0.021342998 0.02145042 0.021960662 0.053146649 0.02192388 0.021848995 inf 0.022591449 0.021907278 0.041048301 0.022372127 0.022083316 inf 0.021658392 0.021996868 0.021649443 0.022059195 0.021711882 0.021721725 0.021708856 0.022338488 0.02230881 0.022063092 0.022290305 0.021760555 0.021823124 0.021916763 0.021968999 0.021894309 0.021887861 0.02212206 0.021948014 0.021996265 0.022412629 0.022056427 0.021999179 0.022177731 0.02234395 0.021552446 0.021625912 0.021979642 0.022277568 0.022408364 0.022422184 0.022228261 0.022783754 0.022685107 0.022645473 0.022235423 0.022139945 inf 0.022338555 0.022431128 0.022482105 0.021848959 0.02216645 0.02187584 0.022313103 inf 0.021931314 0.022125321 0.0222023 0.022291939 0.022502005 0.022206846 inf 0.021866804 0.022694684 0.021923633 0.021940002 0.02265326 0.022203292 0.022314632 #NAME? 0.022011595 0.022088698 0.02231143 #NAME? 0.022905517 0.02254858 0.022089655 0.021637102 #NAME? 0.022159638 0.022321405 0.033620404 inf 0.022119944 0.022497963 0.022285095 inf</cx:v>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Internal Resistance [Ohms] 0.021958029 0.02203463 0.022499555 0.023048211 0.022286677 0.022284827 0.022507648 0.022723468 0.022092263 0.022451534 0.022060796 0.022220672 0.038972394 nan 0.022352158 0.022901045 0.022288249 0.022385703 0.022352597 0.02245628 0.021992809 0.022421965 0.022114479 0.029698682 0.025970994 0.022041924 0.022444703 0.023014403 0.022075972 0.022562734 0.02209541 0.022022436 0.022294598 0.022159805 0.022366027 0.022554122 0.022426654 0.021715701 0.021935815 0.022002528 0.022534218 0.02186487 0.02546101 0.022992485 0.024179199 0.021976867 0.021956925 0.021959388 0.021536842 0.021277101 0.021708078 0.02129701 0.02206241 0.021658923 0.022238285 0.029490834 0.02192011 0.029203645 0.021850666 0.021973619 0.022019835 0.022123094 0.025860397 0.022418387 0.02224752 0.022104322 0.022120299 0.022313715 0.022537777 0.022018664 0.022440531 0.022220127 0.022060144 0.022315265 0.022158214 0.022368163 0.022196909 0.021960264 0.022003265 0.021840765 0.021683069 0.021968782 0.02165038 0.022018202 0.022202625 0.022769042 0.022315718 0.02234744 0.022058861 0.022246123 nan 0.021812799 0.021817491 0.021981182 0.022269834 0.021861214 0.021821648 0.021941517 0.022429506 0.022326916 0.022061137 0.021686093 0.022125414 0.021974237 0.022194461 0.021931232 0.021794661 0.022065328 0.022256825 0.021528337 0.0224099 0.022117532 0.023823638 0.021664152 0.022024785 0.021846849 0.021367736 0.02142033 0.021331908 0.021321027 0.021175744 0.02119416 0.022421596 0.021738496 0.021837705 0.022974323 0.021786491 0.021483327 nan 0.021773771 0.021732616 0.021536857 0.021646536 0.021737195 0.021427539 0.021393341 0.021004937 0.021700093 0.021614108 0.021785361 0.02169101 0.021897497 0.021605432 0.021545972 0.035458102 0.021697338 0.021741974 0.021208281 0.02141789 0.02147604 0.022033049 0.022208426 0.026256898 0.021687227 0.021517415 0.021645888 0.021887787 0.022018006 0.021476445 0.021847564 0.021634995 0.021299539 0.021364742 0.0214271 0.021749612 0.021850984 0.021753868 0.022052416 0.021912157 0.02194296 0.022228299 0.021867286 0.023206104 0.021774208 0.02639027 0.030592139 0.038314698 0.02335115 0.022281658 0.02195362 0.021691397 0.029689905 0.022504006 0.021561849 0.021783925 0.021700812 0.021165344 0.021832559 0.022089775 0.023075121 0.021589504 0.021882713 0.021741458 0.022002182 0.021481682 0.021600297 0.021371014 0.031653348 0.021586472 0.021754448 0.021430185 0.021980311 0.021473436 0.021910922 0.021905154 0.021944583 0.02180048 0.022236306 0.021759018 0.02192122 0.021676745 0.02187003 0.021593256 0.021704116 0.021753422 0.021645816 0.021363682 0.02171837 0.021042413 0.033507573 0.020639222 0.02064695 0.021079844 0.021610118 0.021786635 0.021652585 0.022146752 0.02179172 0.022045253 0.021820604 0.025168387 0.021626706 0.021459785 0.02106601 0.021359916 0.021718013 0.021489696 0.021687679 0.021701123 0.021621245 0.021875878 0.021914695 0.021818653 0.042497409 0.021619935 0.025670851 0.021424832 0.021167563 0.021284854 0.02132026 0.021510629 0.021778589 0.021615242 0.021749548 0.021703865 0.021781008 0.021222059 0.022538309 0.022204202 0.022060043 0.022281946 0.022500971 0.022087905 0.022298398 0.022373455 0.021936196 0.021704696 0.021413447 0.021876979 0.022402264 0.022142267 0.022353379 0.022408084 0.032720709 0.02217048 0.021967252 0.021997359 0.022094737 0.0220568 0.021622526 0.022081009 0.022149774 0.02229805 0.021752916 0.021965761 0.022471006 0.022342092 0.02207614 0.022273565 0.022039114 0.021378904 0.02085706 0.021176448 0.022095637 0.02212598 0.021927199 0.02238693 0.022486139 0.022101134 0.022020967 0.021936236 0.02220287 0.021917769 0.02153128 0.022443135 0.022134851 0.022683504 0.022339544 0.022606156 0.02234649 0.02273439 0.022106652 0.022297329 0.022548636 0.021895607 0.021625567 0.021710487 0.022060761 0.022056469 0.022280444 0.022422597 0.022038345 0.021971577 0.021720613 0.021991213 0.021227654 0.021262133 0.021084513 0.020480062 0.020584894 0.020920165 0.021488497 0.022251393 0.022414878 0.022472095 0.022057263 0.021805009 0.022288341 0.022148689 0.022227472 0.021803024 0.02189943 0.022122685 0.022034534 0.022008844 0.022147469 0.022319336 0.021887339 0.022453102 0.022177413 0.022654455 0.022300858 0.021807331 0.022184601 0.022154119 0.022171471 0.022342952 0.021946292 0.021840612 0.022214955 0.022684303 0.021966833 0.02231984 0.021991978 0.022091817 0.021525303 0.021446876 0.02145032 0.021284782 0.021491816 0.022428668 0.022457308 0.022066086 0.022218831 0.022041238 0.022068118 0.021964842 0.022154717 0.021813522 0.022247462 0.040740536 0.022447336 0.022269309 0.022547962 0.022379195 0.021841675 0.022106746 0.021941173 0.022123757 0.021839491 0.022540866 0.022071097 0.022020044 0.022519191 0.022731613 0.022017861 0.021908265 0.022317844 0.022664665 0.0223293 0.022191739 0.021999187 0.022596525 0.022416056 0.021819111 0.021549526 0.022391068 0.022039673 0.022805176 0.022009691 0.021756933 0.021551405 0.022091283 0.021448559 0.021342998 0.02145042 0.021960662 0.053146649 0.02192388 0.021848995 nan 0.022591449 0.021907278 0.041048301 0.022372127 0.022083316 nan 0.021658392 0.021996868 0.021649443 0.022059195 0.021711882 0.021721725 0.021708856 0.022338488 0.02230881 0.022063092 0.022290305 0.021760555 0.021823124 0.021916763 0.021968999 0.021894309 0.021887861 0.02212206 0.021948014 0.021996265 0.022412629 0.022056427 0.021999179 0.022177731 0.02234395 0.021552446 0.021625912 0.021979642 0.022277568 0.022408364 0.022422184 0.022228261 0.022783754 0.022685107 0.022645473 0.022235423 0.022139945 nan 0.022338555 0.022431128 0.022482105 0.021848959 0.02216645 0.02187584 0.022313103 nan 0.021931314 0.022125321 0.0222023 0.022291939 0.022502005 0.022206846 nan 0.021866804 0.022694684 0.021923633 0.021940002 0.02265326 0.022203292 0.022314632 nan 0.022011595 0.022088698 0.02231143 nan 0.022905517 0.02254858 0.022089655 0.021637102 nan 0.022159638 0.022321405 0.033620404 nan 0.022119944 0.022497963 0.022285095 nan</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -660,7 +669,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -698,7 +707,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F9F38D0-8694-4EB0-9DE8-F7C9EDABB529}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Open Circuit Voltage [V]</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1869,8 +1878,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3177540" y="1419225"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="3229791" y="1434465"/>
+              <a:ext cx="4676503" cy="2775857"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1947,8 +1956,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3190875" y="4379595"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="3243126" y="4429669"/>
+              <a:ext cx="4676503" cy="2775857"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2277,16 +2286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>3.5863620599999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>3.58637805</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>3.5865713800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>3.5842561800000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2352,7 +2361,7 @@
         <v>3.5869331899999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>3.586716</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>3.5865928</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2385,7 +2394,7 @@
         <v>3.5833499099999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>3.5838994199999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>3.5842345799999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2418,7 +2427,7 @@
         <v>3.5846586500000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>3.5826202199999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2440,19 +2449,18 @@
         <v>3.58568445</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="C15">
         <v>3.58661298</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2463,7 +2471,7 @@
         <v>3.5851546600000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2474,7 +2482,7 @@
         <v>3.5837784500000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>3.58597374</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2496,7 +2504,7 @@
         <v>3.5862014699999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2507,7 +2515,7 @@
         <v>3.5854676699999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2518,7 +2526,7 @@
         <v>3.5845161600000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>3.5856853100000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2540,7 +2548,7 @@
         <v>3.5844257599999998</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2551,7 +2559,7 @@
         <v>3.5872611499999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>3.5852029299999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>3.5852822799999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>3.5851068100000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>3.5858942699999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>3.58548226</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>3.5847922200000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>3.5834907999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>3.5857572900000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>3.58533875</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>3.5862832500000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>3.5851896399999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2683,7 +2691,7 @@
         <v>3.585156</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2694,7 +2702,7 @@
         <v>3.5837554699999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2705,7 +2713,7 @@
         <v>3.5834771500000002</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>3.5866944300000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2727,7 +2735,7 @@
         <v>3.5861924599999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2738,7 +2746,7 @@
         <v>3.5873759299999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2749,7 +2757,7 @@
         <v>3.5843445100000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>3.5867689199999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2771,7 +2779,7 @@
         <v>3.5859128600000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>3.58413257</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>3.58620837</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2804,7 +2812,7 @@
         <v>3.5846373300000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>3.5856660699999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2826,7 +2834,7 @@
         <v>3.5848840399999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>3.58479926</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>3.5865419200000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>3.5860787200000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2870,7 +2878,7 @@
         <v>3.5854544700000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2881,7 +2889,7 @@
         <v>3.5840670399999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2892,7 +2900,7 @@
         <v>3.5865565899999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2903,7 +2911,7 @@
         <v>3.5852415999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>3.58722232</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>3.5840905200000002</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>3.5847386399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>3.5850044699999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>3.5847504400000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2969,7 +2977,7 @@
         <v>3.5860321499999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2980,7 +2988,7 @@
         <v>3.58548563</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2991,7 +2999,7 @@
         <v>3.5850256900000002</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>3.58617126</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3013,7 +3021,7 @@
         <v>3.5843865899999998</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3024,7 +3032,7 @@
         <v>3.5856599999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>3.5848412999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3046,7 +3054,7 @@
         <v>3.5844765399999998</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>3.5843326700000002</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>3.5863097000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>3.5852665899999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3090,7 +3098,7 @@
         <v>3.5847707199999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>3.5857833800000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3112,7 +3120,7 @@
         <v>3.5846327200000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>3.5845393799999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>3.5850105999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3145,7 +3153,7 @@
         <v>3.5837242300000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3156,7 +3164,7 @@
         <v>3.5852730400000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3167,7 +3175,7 @@
         <v>3.58591098</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>3.5858337699999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3189,7 +3197,7 @@
         <v>3.5854284199999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>3.5847929500000002</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3211,7 +3219,7 @@
         <v>3.5855833100000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3222,7 +3230,7 @@
         <v>3.5837562100000002</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>3.5854377400000002</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>3.5854560700000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>3.5849822100000002</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3266,7 +3274,7 @@
         <v>3.58492554</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3277,7 +3285,7 @@
         <v>3.58442595</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>3.58542345</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>3.5868647600000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>3.58621452</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3321,7 +3329,7 @@
         <v>3.5867310799999998</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>3.58493453</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>3.5847483599999999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3354,7 +3362,7 @@
         <v>3.5857746000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>3.5860598000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3376,7 +3384,7 @@
         <v>3.5858930299999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>3.58410311</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3398,7 +3406,7 @@
         <v>3.5839428799999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3409,7 +3417,7 @@
         <v>3.5858409500000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3420,7 +3428,7 @@
         <v>3.5870714299999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3431,7 +3439,7 @@
         <v>3.5856954299999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>3.5853669799999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>3.5855644400000002</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3464,7 +3472,7 @@
         <v>3.5851785999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3475,7 +3483,7 @@
         <v>3.5865224499999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3486,7 +3494,7 @@
         <v>3.5864713699999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>3.5846521199999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3508,7 +3516,7 @@
         <v>3.5864563</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>3.58453439</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>3.58574897</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3541,7 +3549,7 @@
         <v>3.5838747299999998</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3552,7 +3560,7 @@
         <v>3.5866607500000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3563,7 +3571,7 @@
         <v>3.5842259599999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3574,7 +3582,7 @@
         <v>3.5858114300000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>3.58561101</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>3.5854695400000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>3.58699703</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3618,7 +3626,7 @@
         <v>3.58762713</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3629,7 +3637,7 @@
         <v>3.5867457300000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3640,7 +3648,7 @@
         <v>3.5849602200000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3651,7 +3659,7 @@
         <v>3.5833504899999999</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>3.5864399300000001</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>3.5858146799999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3684,7 +3692,7 @@
         <v>3.5861558499999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3695,7 +3703,7 @@
         <v>3.5840944100000001</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>3.5845385599999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3717,7 +3725,7 @@
         <v>3.5865817600000001</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3728,7 +3736,7 @@
         <v>3.5838757800000001</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>3.58736648</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>3.5854100999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>3.5858454499999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>3.5851153999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3783,7 +3791,7 @@
         <v>3.58372497</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>3.5849590199999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3805,7 +3813,7 @@
         <v>3.5849433899999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>3.5850813100000001</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3827,7 +3835,7 @@
         <v>3.5868438</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3838,7 +3846,7 @@
         <v>3.5854870299999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3849,7 +3857,7 @@
         <v>3.5846651</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3860,7 +3868,7 @@
         <v>3.5852385500000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>3.58503829</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>3.5859785099999999</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>3.5860851500000002</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3904,7 +3912,7 @@
         <v>3.58527547</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3915,7 +3923,7 @@
         <v>3.5859398699999998</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3926,7 +3934,7 @@
         <v>3.5864663999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>3.5861174099999999</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>3.5860169800000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>3.58537185</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3970,7 +3978,7 @@
         <v>3.5849421700000002</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3981,7 +3989,7 @@
         <v>3.5845029899999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>3.5862448200000001</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4003,7 +4011,7 @@
         <v>3.5875695400000001</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>3.5861844399999998</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4025,7 +4033,7 @@
         <v>3.58548957</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4036,7 +4044,7 @@
         <v>3.58455974</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>3.58273931</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>3.58522271</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4069,7 +4077,7 @@
         <v>3.5860443100000001</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>3.5865620200000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>3.58652032</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>3.5877557000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>3.5872914100000002</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>3.5877569999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>3.58680164</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4146,7 +4154,7 @@
         <v>3.58566663</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4157,7 +4165,7 @@
         <v>3.58505202</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4168,7 +4176,7 @@
         <v>3.5855093500000002</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4179,7 +4187,7 @@
         <v>3.58347068</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>173</v>
       </c>
@@ -4190,7 +4198,7 @@
         <v>3.5857344200000001</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>174</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>3.5846530400000001</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>175</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>3.5857184100000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>176</v>
       </c>
@@ -4223,7 +4231,7 @@
         <v>3.5866232999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>177</v>
       </c>
@@ -4234,7 +4242,7 @@
         <v>3.5861894300000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>178</v>
       </c>
@@ -4245,7 +4253,7 @@
         <v>3.58515337</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>179</v>
       </c>
@@ -4256,7 +4264,7 @@
         <v>3.5846671300000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>180</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>3.58435273</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>181</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>3.5862057599999999</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>182</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>3.5846790099999999</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>183</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>3.58566691</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>184</v>
       </c>
@@ -4311,7 +4319,7 @@
         <v>3.5850190199999998</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>185</v>
       </c>
@@ -4322,7 +4330,7 @@
         <v>3.5862769000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>186</v>
       </c>
@@ -4333,7 +4341,7 @@
         <v>3.5854699999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>187</v>
       </c>
@@ -4344,7 +4352,7 @@
         <v>3.5860604600000001</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>188</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>3.58625295</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>189</v>
       </c>
@@ -4366,7 +4374,7 @@
         <v>3.5860414899999999</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>190</v>
       </c>
@@ -4377,7 +4385,7 @@
         <v>3.5846843399999999</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>191</v>
       </c>
@@ -4388,7 +4396,7 @@
         <v>3.5854089600000001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>192</v>
       </c>
@@ -4399,7 +4407,7 @@
         <v>3.5857182299999999</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>193</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>3.58401302</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>194</v>
       </c>
@@ -4421,7 +4429,7 @@
         <v>3.5855064900000002</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>195</v>
       </c>
@@ -4432,7 +4440,7 @@
         <v>3.5843715399999998</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>196</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>3.58563688</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>197</v>
       </c>
@@ -4454,7 +4462,7 @@
         <v>3.5865067000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>198</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>3.5864748</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>199</v>
       </c>
@@ -4476,7 +4484,7 @@
         <v>3.5843707</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>200</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>3.5859122000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>201</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>3.58549096</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>202</v>
       </c>
@@ -4509,7 +4517,7 @@
         <v>3.5854518799999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>203</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>3.5845751300000002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>204</v>
       </c>
@@ -4531,7 +4539,7 @@
         <v>3.5857933800000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>205</v>
       </c>
@@ -4542,7 +4550,7 @@
         <v>3.5858807000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>206</v>
       </c>
@@ -4553,7 +4561,7 @@
         <v>3.58676649</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>207</v>
       </c>
@@ -4564,7 +4572,7 @@
         <v>3.5865679300000002</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>208</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>3.5861496399999999</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>209</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>3.5842554400000002</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>210</v>
       </c>
@@ -4597,7 +4605,7 @@
         <v>3.5851818099999999</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>211</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>3.5849593</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>212</v>
       </c>
@@ -4619,7 +4627,7 @@
         <v>3.5831100299999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>213</v>
       </c>
@@ -4630,7 +4638,7 @@
         <v>3.5866764600000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>214</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>3.5844194900000002</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>215</v>
       </c>
@@ -4652,7 +4660,7 @@
         <v>3.58594875</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>216</v>
       </c>
@@ -4663,7 +4671,7 @@
         <v>3.58398292</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>217</v>
       </c>
@@ -4674,7 +4682,7 @@
         <v>3.5855734099999998</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>218</v>
       </c>
@@ -4685,7 +4693,7 @@
         <v>3.58584265</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>219</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>3.5857861799999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>220</v>
       </c>
@@ -4707,7 +4715,7 @@
         <v>3.5869048700000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>221</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>3.5854811400000002</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>222</v>
       </c>
@@ -4729,7 +4737,7 @@
         <v>3.5866730699999998</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>223</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>3.5863844999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>224</v>
       </c>
@@ -4751,7 +4759,7 @@
         <v>3.5861389099999998</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>225</v>
       </c>
@@ -4762,7 +4770,7 @@
         <v>3.5855823500000001</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>226</v>
       </c>
@@ -4773,7 +4781,7 @@
         <v>3.5857355200000001</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>227</v>
       </c>
@@ -4784,7 +4792,7 @@
         <v>3.58578872</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>228</v>
       </c>
@@ -4795,7 +4803,7 @@
         <v>3.58445977</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>229</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>3.5864297500000002</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>230</v>
       </c>
@@ -4817,7 +4825,7 @@
         <v>3.5854407400000001</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>231</v>
       </c>
@@ -4828,7 +4836,7 @@
         <v>3.5848358299999998</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>232</v>
       </c>
@@ -4839,7 +4847,7 @@
         <v>3.5864843300000002</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>233</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>3.5856100500000001</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>234</v>
       </c>
@@ -4861,7 +4869,7 @@
         <v>3.58441857</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>235</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>3.5863136500000001</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>236</v>
       </c>
@@ -4883,7 +4891,7 @@
         <v>3.5861253500000001</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>237</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>3.5838178100000002</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>238</v>
       </c>
@@ -4905,7 +4913,7 @@
         <v>3.58608854</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>239</v>
       </c>
@@ -4916,7 +4924,7 @@
         <v>3.5855363699999998</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>240</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>3.58626662</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>241</v>
       </c>
@@ -4938,7 +4946,7 @@
         <v>3.5864128399999999</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>242</v>
       </c>
@@ -4949,7 +4957,7 @@
         <v>3.5860020499999998</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>243</v>
       </c>
@@ -4960,7 +4968,7 @@
         <v>3.5846127399999999</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>244</v>
       </c>
@@ -4971,7 +4979,7 @@
         <v>3.5851918899999999</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>245</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>3.5859869</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>246</v>
       </c>
@@ -4993,7 +5001,7 @@
         <v>3.5857409699999998</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>247</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>3.5851706800000001</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>248</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>3.5857271900000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>249</v>
       </c>
@@ -5026,7 +5034,7 @@
         <v>3.5856768300000001</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>250</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>3.5851501699999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>251</v>
       </c>
@@ -5048,7 +5056,7 @@
         <v>3.5854818800000001</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>252</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>3.5855142999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>253</v>
       </c>
@@ -5070,7 +5078,7 @@
         <v>3.5843926399999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>254</v>
       </c>
@@ -5081,7 +5089,7 @@
         <v>3.5858252400000001</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>255</v>
       </c>
@@ -5092,7 +5100,7 @@
         <v>3.5852789299999999</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>256</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>3.5855961999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>257</v>
       </c>
@@ -5114,7 +5122,7 @@
         <v>3.5848346000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>258</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>3.5853070499999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>259</v>
       </c>
@@ -5136,7 +5144,7 @@
         <v>3.5858519900000001</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>260</v>
       </c>
@@ -5147,7 +5155,7 @@
         <v>3.58487803</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>261</v>
       </c>
@@ -5158,7 +5166,7 @@
         <v>3.5845241900000002</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>262</v>
       </c>
@@ -5169,7 +5177,7 @@
         <v>3.5853945399999998</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>263</v>
       </c>
@@ -5180,7 +5188,7 @@
         <v>3.5853890599999998</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>264</v>
       </c>
@@ -5191,7 +5199,7 @@
         <v>3.5860137999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>265</v>
       </c>
@@ -5202,7 +5210,7 @@
         <v>3.5860298899999998</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>266</v>
       </c>
@@ -5213,7 +5221,7 @@
         <v>3.58428375</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>267</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>3.5861510600000002</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>268</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>3.5858345300000001</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>269</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>3.58632982</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>270</v>
       </c>
@@ -5257,7 +5265,7 @@
         <v>3.58518457</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>271</v>
       </c>
@@ -5268,7 +5276,7 @@
         <v>3.5841490999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>272</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>3.5855213400000001</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>273</v>
       </c>
@@ -5290,7 +5298,7 @@
         <v>3.5850291200000002</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>274</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>3.5846499700000001</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>275</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>3.58507446</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>276</v>
       </c>
@@ -5323,7 +5331,7 @@
         <v>3.5854966699999999</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>277</v>
       </c>
@@ -5334,7 +5342,7 @@
         <v>3.5866874200000001</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>278</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>3.5859510000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>279</v>
       </c>
@@ -5356,7 +5364,7 @@
         <v>3.5852777100000002</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>280</v>
       </c>
@@ -5367,7 +5375,7 @@
         <v>3.58555694</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>281</v>
       </c>
@@ -5378,7 +5386,7 @@
         <v>3.5868295099999998</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>282</v>
       </c>
@@ -5389,7 +5397,7 @@
         <v>3.58527621</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>283</v>
       </c>
@@ -5400,7 +5408,7 @@
         <v>3.5853790299999999</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>284</v>
       </c>
@@ -5411,7 +5419,7 @@
         <v>3.5863124200000001</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>285</v>
       </c>
@@ -5422,7 +5430,7 @@
         <v>3.5869185799999999</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>286</v>
       </c>
@@ -5433,7 +5441,7 @@
         <v>3.5856207100000002</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>287</v>
       </c>
@@ -5444,7 +5452,7 @@
         <v>3.5845934000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>288</v>
       </c>
@@ -5455,7 +5463,7 @@
         <v>3.5846939799999999</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>289</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>3.5841284600000001</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>290</v>
       </c>
@@ -5477,7 +5485,7 @@
         <v>3.5841778299999998</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>291</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>3.5846033799999999</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>292</v>
       </c>
@@ -5499,7 +5507,7 @@
         <v>3.5862714699999998</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>293</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>3.5862716899999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>294</v>
       </c>
@@ -5521,7 +5529,7 @@
         <v>3.5869346700000002</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>295</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>3.5854744200000002</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>296</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>3.5858083199999999</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>297</v>
       </c>
@@ -5554,7 +5562,7 @@
         <v>3.5854999200000002</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>298</v>
       </c>
@@ -5565,7 +5573,7 @@
         <v>3.5847125900000001</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>299</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>3.5858858499999999</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>300</v>
       </c>
@@ -5587,7 +5595,7 @@
         <v>3.5866638499999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>301</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>3.5867107800000002</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>302</v>
       </c>
@@ -5609,7 +5617,7 @@
         <v>3.5872959799999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>303</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>3.5849539699999999</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>304</v>
       </c>
@@ -5631,7 +5639,7 @@
         <v>3.5856353900000002</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>305</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>3.5862166800000002</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>306</v>
       </c>
@@ -5653,7 +5661,7 @@
         <v>3.5837821000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>307</v>
       </c>
@@ -5664,7 +5672,7 @@
         <v>3.5856384800000001</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>308</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>3.5851922699999998</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>309</v>
       </c>
@@ -5686,7 +5694,7 @@
         <v>3.5859676500000002</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>310</v>
       </c>
@@ -5697,7 +5705,7 @@
         <v>3.5848347700000001</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>311</v>
       </c>
@@ -5708,7 +5716,7 @@
         <v>3.58568044</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>312</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>3.5842366399999999</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>313</v>
       </c>
@@ -5730,7 +5738,7 @@
         <v>3.5865478300000002</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>314</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>3.5853597100000001</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>315</v>
       </c>
@@ -5752,7 +5760,7 @@
         <v>3.5853452200000002</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>316</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>3.5855862200000002</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>317</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>3.5863837799999998</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>318</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>3.5865307</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>319</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>3.5861194599999999</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>320</v>
       </c>
@@ -5807,7 +5815,7 @@
         <v>3.5857391500000002</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>321</v>
       </c>
@@ -5818,7 +5826,7 @@
         <v>3.5858997800000001</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>322</v>
       </c>
@@ -5829,7 +5837,7 @@
         <v>3.5849152800000001</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>323</v>
       </c>
@@ -5840,7 +5848,7 @@
         <v>3.5854138899999999</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>324</v>
       </c>
@@ -5851,7 +5859,7 @@
         <v>3.5852646400000001</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>326</v>
       </c>
@@ -5862,7 +5870,7 @@
         <v>3.5853879200000001</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>327</v>
       </c>
@@ -5873,7 +5881,7 @@
         <v>3.5853122000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>328</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>3.5875272800000002</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>329</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>3.5858902399999999</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>330</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>3.5875369199999998</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>331</v>
       </c>
@@ -5917,7 +5925,7 @@
         <v>3.5864111300000001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>332</v>
       </c>
@@ -5928,7 +5936,7 @@
         <v>3.5868735200000001</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>333</v>
       </c>
@@ -5939,7 +5947,7 @@
         <v>3.5866900400000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>334</v>
       </c>
@@ -5950,7 +5958,7 @@
         <v>3.58600926</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>335</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>3.5855828299999999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>336</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>3.5855999299999999</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>337</v>
       </c>
@@ -5983,7 +5991,7 @@
         <v>3.5853711700000002</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>338</v>
       </c>
@@ -5994,7 +6002,7 @@
         <v>3.5855404100000001</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>339</v>
       </c>
@@ -6005,7 +6013,7 @@
         <v>3.5870415200000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>340</v>
       </c>
@@ -6016,7 +6024,7 @@
         <v>3.5850567099999999</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>341</v>
       </c>
@@ -6027,7 +6035,7 @@
         <v>3.5854994499999999</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>342</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>3.5844974399999998</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>343</v>
       </c>
@@ -6049,7 +6057,7 @@
         <v>3.5855651000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>344</v>
       </c>
@@ -6060,7 +6068,7 @@
         <v>3.5854291599999999</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>345</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>3.5846822899999999</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>346</v>
       </c>
@@ -6082,7 +6090,7 @@
         <v>3.58454279</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>347</v>
       </c>
@@ -6093,7 +6101,7 @@
         <v>3.5850833400000002</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>348</v>
       </c>
@@ -6104,7 +6112,7 @@
         <v>3.5862209900000002</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>349</v>
       </c>
@@ -6115,7 +6123,7 @@
         <v>3.5846900700000002</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>350</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>3.58561211</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>351</v>
       </c>
@@ -6137,7 +6145,7 @@
         <v>3.5840944299999999</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>352</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>3.58555191</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>353</v>
       </c>
@@ -6159,7 +6167,7 @@
         <v>3.5863269299999998</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>354</v>
       </c>
@@ -6170,7 +6178,7 @@
         <v>3.58529396</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>355</v>
       </c>
@@ -6181,7 +6189,7 @@
         <v>3.5862446399999999</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>356</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>3.58611441</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>357</v>
       </c>
@@ -6203,7 +6211,7 @@
         <v>3.5857063500000002</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>358</v>
       </c>
@@ -6214,7 +6222,7 @@
         <v>3.5848755200000002</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>359</v>
       </c>
@@ -6225,7 +6233,7 @@
         <v>3.5856502400000001</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>360</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>3.58639376</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>361</v>
       </c>
@@ -6247,7 +6255,7 @@
         <v>3.5854633699999998</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>362</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>3.5853399700000002</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>363</v>
       </c>
@@ -6269,7 +6277,7 @@
         <v>3.5845852499999999</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>364</v>
       </c>
@@ -6280,7 +6288,7 @@
         <v>3.58610527</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>365</v>
       </c>
@@ -6291,7 +6299,7 @@
         <v>3.5845929000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>366</v>
       </c>
@@ -6302,7 +6310,7 @@
         <v>3.58640552</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>367</v>
       </c>
@@ -6313,7 +6321,7 @@
         <v>3.5863150500000001</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>368</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>3.5857139</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>369</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>3.5858304200000002</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>370</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>3.5860669199999999</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>371</v>
       </c>
@@ -6357,7 +6365,7 @@
         <v>3.5859824200000001</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>372</v>
       </c>
@@ -6368,7 +6376,7 @@
         <v>3.5858244300000002</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>373</v>
       </c>
@@ -6379,7 +6387,7 @@
         <v>3.5841446700000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>374</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>3.5841306999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>375</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>3.5853769799999999</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>376</v>
       </c>
@@ -6412,7 +6420,7 @@
         <v>3.5856935399999998</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>377</v>
       </c>
@@ -6423,7 +6431,7 @@
         <v>3.5848954399999999</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>378</v>
       </c>
@@ -6434,7 +6442,7 @@
         <v>3.5856567099999999</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>379</v>
       </c>
@@ -6445,7 +6453,7 @@
         <v>3.5856243499999998</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>380</v>
       </c>
@@ -6456,7 +6464,7 @@
         <v>3.5860111099999998</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>381</v>
       </c>
@@ -6467,7 +6475,7 @@
         <v>3.5861446199999998</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>382</v>
       </c>
@@ -6478,7 +6486,7 @@
         <v>3.5836387799999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>383</v>
       </c>
@@ -6489,7 +6497,7 @@
         <v>3.58755253</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>384</v>
       </c>
@@ -6500,7 +6508,7 @@
         <v>3.5855165699999998</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>385</v>
       </c>
@@ -6511,7 +6519,7 @@
         <v>3.58556893</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>386</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>3.5844696900000002</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>387</v>
       </c>
@@ -6533,7 +6541,7 @@
         <v>3.5856150100000002</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>388</v>
       </c>
@@ -6544,7 +6552,7 @@
         <v>3.58648597</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>389</v>
       </c>
@@ -6555,7 +6563,7 @@
         <v>3.5850999099999998</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>390</v>
       </c>
@@ -6566,7 +6574,7 @@
         <v>3.5870902500000001</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>391</v>
       </c>
@@ -6577,7 +6585,7 @@
         <v>3.5860717900000001</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>392</v>
       </c>
@@ -6588,7 +6596,7 @@
         <v>3.5869629199999999</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>393</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>3.5856976500000002</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>394</v>
       </c>
@@ -6610,7 +6618,7 @@
         <v>3.5848448799999999</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>395</v>
       </c>
@@ -6621,7 +6629,7 @@
         <v>3.5853896199999999</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>396</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>3.5856377400000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>397</v>
       </c>
@@ -6643,7 +6651,7 @@
         <v>3.5849860100000002</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>398</v>
       </c>
@@ -6654,7 +6662,7 @@
         <v>3.5851856199999999</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>399</v>
       </c>
@@ -6665,7 +6673,7 @@
         <v>3.5859234199999999</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>400</v>
       </c>
@@ -6676,7 +6684,7 @@
         <v>3.5843236699999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>401</v>
       </c>
@@ -6687,7 +6695,7 @@
         <v>3.5850144500000001</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>402</v>
       </c>
@@ -6698,7 +6706,7 @@
         <v>3.58429003</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>403</v>
       </c>
@@ -6709,7 +6717,7 @@
         <v>3.5856712000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>404</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>3.5855118799999999</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>405</v>
       </c>
@@ -6731,7 +6739,7 @@
         <v>3.5860743300000002</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>406</v>
       </c>
@@ -6742,7 +6750,7 @@
         <v>3.5861142300000002</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>407</v>
       </c>
@@ -6753,7 +6761,7 @@
         <v>3.5861139500000001</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>408</v>
       </c>
@@ -6764,7 +6772,7 @@
         <v>3.5864325400000001</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>409</v>
       </c>
@@ -6775,7 +6783,7 @@
         <v>3.5841132500000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>410</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>3.5852140299999999</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>411</v>
       </c>
@@ -6797,7 +6805,7 @@
         <v>3.5836817000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>412</v>
       </c>
@@ -6808,7 +6816,7 @@
         <v>3.5854650499999998</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>413</v>
       </c>
@@ -6819,7 +6827,7 @@
         <v>3.5844059499999998</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>414</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>3.5871321300000001</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>415</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>3.5838104500000001</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>416</v>
       </c>
@@ -6852,7 +6860,7 @@
         <v>3.5862055000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>417</v>
       </c>
@@ -6863,7 +6871,7 @@
         <v>3.5844351200000002</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>418</v>
       </c>
@@ -6874,7 +6882,7 @@
         <v>3.58564894</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>419</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>3.5855858600000001</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>420</v>
       </c>
@@ -6896,7 +6904,7 @@
         <v>3.58460264</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>421</v>
       </c>
@@ -6907,7 +6915,7 @@
         <v>3.5856531500000002</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>422</v>
       </c>
@@ -6918,7 +6926,7 @@
         <v>3.5854087799999999</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>423</v>
       </c>
@@ -6929,7 +6937,7 @@
         <v>3.5861865000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>424</v>
       </c>
@@ -6940,7 +6948,7 @@
         <v>3.5858749099999998</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>425</v>
       </c>
@@ -6951,7 +6959,7 @@
         <v>3.5856527900000001</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>426</v>
       </c>
@@ -6962,7 +6970,7 @@
         <v>3.5857829799999998</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>427</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>3.5849452799999999</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>428</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>3.5861868499999998</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>429</v>
       </c>
@@ -6995,7 +7003,7 @@
         <v>3.58580327</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>430</v>
       </c>
@@ -7006,7 +7014,7 @@
         <v>3.5850558700000001</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>431</v>
       </c>
@@ -7017,7 +7025,7 @@
         <v>3.5862524100000002</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>432</v>
       </c>
@@ -7028,7 +7036,7 @@
         <v>3.5856816600000001</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>433</v>
       </c>
@@ -7039,7 +7047,7 @@
         <v>3.5863758099999998</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>434</v>
       </c>
@@ -7050,7 +7058,7 @@
         <v>3.5866695599999998</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>435</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>3.58514255</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>436</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>3.5841330500000002</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>437</v>
       </c>
@@ -7083,7 +7091,7 @@
         <v>3.5858942499999999</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>438</v>
       </c>
@@ -7094,7 +7102,7 @@
         <v>3.5848948599999999</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>439</v>
       </c>
@@ -7105,7 +7113,7 @@
         <v>3.5853540100000001</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>440</v>
       </c>
@@ -7116,7 +7124,7 @@
         <v>3.58510288</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>441</v>
       </c>
@@ -7127,7 +7135,7 @@
         <v>3.5865872900000002</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>442</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>3.58474644</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>443</v>
       </c>
@@ -7149,7 +7157,7 @@
         <v>3.58476551</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>444</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>3.5841447500000001</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>445</v>
       </c>
@@ -7171,7 +7179,7 @@
         <v>3.58596184</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>446</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>3.5861698500000001</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>447</v>
       </c>
@@ -7193,7 +7201,7 @@
         <v>3.5849873400000001</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>448</v>
       </c>
@@ -7204,7 +7212,7 @@
         <v>3.5850582900000001</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>449</v>
       </c>
@@ -7215,7 +7223,7 @@
         <v>3.5856547499999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>450</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>3.5846584300000002</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>451</v>
       </c>
@@ -7237,7 +7245,7 @@
         <v>3.5845996599999999</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>452</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>3.5859900900000001</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>453</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>3.5832717600000001</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>454</v>
       </c>
@@ -7270,7 +7278,7 @@
         <v>3.5847147399999999</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>455</v>
       </c>
@@ -7281,7 +7289,7 @@
         <v>3.5856977300000001</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>456</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>3.58494549</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>457</v>
       </c>
@@ -7303,7 +7311,7 @@
         <v>3.5845291600000002</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>458</v>
       </c>
@@ -7314,7 +7322,7 @@
         <v>3.5857618900000001</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>459</v>
       </c>
@@ -7325,7 +7333,7 @@
         <v>3.5846058300000001</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>460</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>3.5848906500000002</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>461</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>3.5851137199999998</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>462</v>
       </c>
@@ -7358,7 +7366,7 @@
         <v>3.5844311800000002</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>463</v>
       </c>
@@ -7369,7 +7377,7 @@
         <v>3.5853454</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>464</v>
       </c>
@@ -7380,7 +7388,7 @@
         <v>3.58556125</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>465</v>
       </c>
@@ -7391,7 +7399,7 @@
         <v>3.58563381</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>466</v>
       </c>
@@ -7402,7 +7410,7 @@
         <v>3.58573326</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>467</v>
       </c>
@@ -7413,7 +7421,7 @@
         <v>3.5853925100000001</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>468</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>3.5839687900000001</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>469</v>
       </c>
@@ -7435,7 +7443,7 @@
         <v>3.5853881400000001</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>470</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>3.585388</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>471</v>
       </c>
@@ -7457,7 +7465,7 @@
         <v>3.5865808700000001</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>472</v>
       </c>
@@ -7468,7 +7476,7 @@
         <v>3.5865279000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>473</v>
       </c>
@@ -7479,7 +7487,7 @@
         <v>3.5850303399999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>474</v>
       </c>
@@ -7490,7 +7498,7 @@
         <v>3.58316386</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>475</v>
       </c>
@@ -7501,7 +7509,7 @@
         <v>3.5871640899999999</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>476</v>
       </c>
@@ -7512,7 +7520,7 @@
         <v>3.58665119</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>477</v>
       </c>
@@ -7523,7 +7531,7 @@
         <v>3.5853247399999999</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>478</v>
       </c>
@@ -7534,7 +7542,7 @@
         <v>3.5849138599999999</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>479</v>
       </c>
@@ -7545,7 +7553,7 @@
         <v>3.5851264399999998</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>480</v>
       </c>
@@ -7556,7 +7564,7 @@
         <v>3.5841818600000002</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>481</v>
       </c>
@@ -7567,7 +7575,7 @@
         <v>3.5866909499999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>482</v>
       </c>
@@ -7578,7 +7586,7 @@
         <v>3.5841609999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>483</v>
       </c>
@@ -7589,7 +7597,7 @@
         <v>3.5853028600000001</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>484</v>
       </c>
@@ -7600,7 +7608,7 @@
         <v>3.5828585500000001</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>485</v>
       </c>
@@ -7611,7 +7619,7 @@
         <v>3.5859726200000002</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>486</v>
       </c>
@@ -7622,7 +7630,7 @@
         <v>3.5861936800000001</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>487</v>
       </c>
@@ -7633,7 +7641,7 @@
         <v>3.58416136</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>488</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>3.5850409000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>489</v>
       </c>
@@ -7655,19 +7663,18 @@
         <v>3.5860585</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>490</v>
       </c>
-      <c r="B489" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
+      <c r="B489" t="s">
+        <v>3</v>
       </c>
       <c r="C489">
         <v>3.58283248</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>491</v>
       </c>
@@ -7678,7 +7685,7 @@
         <v>3.5858040500000001</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>492</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>3.5854025100000002</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>493</v>
       </c>
@@ -7700,19 +7707,18 @@
         <v>3.58528454</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>494</v>
       </c>
-      <c r="B493" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
+      <c r="B493" t="s">
+        <v>3</v>
       </c>
       <c r="C493">
         <v>3.5841363099999999</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>495</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>3.5843233099999998</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>496</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>3.5848768099999999</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>497</v>
       </c>
@@ -7745,7 +7751,7 @@
         <v>3.58699228</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>498</v>
       </c>
@@ -7756,19 +7762,18 @@
         <v>3.58634685</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>499</v>
       </c>
-      <c r="B498" t="e">
-        <f>-inf</f>
-        <v>#NAME?</v>
+      <c r="B498" t="s">
+        <v>3</v>
       </c>
       <c r="C498">
         <v>3.5852744300000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>500</v>
       </c>
@@ -7779,7 +7784,7 @@
         <v>3.58494351</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>501</v>
       </c>
@@ -7790,7 +7795,7 @@
         <v>3.5858577999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>502</v>
       </c>
@@ -7801,7 +7806,7 @@
         <v>3.5875912400000001</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>503</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>3.5856262399999999</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>504</v>
       </c>
@@ -7823,7 +7828,7 @@
         <v>3.5857619700000001</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>505</v>
       </c>
@@ -7834,7 +7839,7 @@
         <v>3.5854629199999999</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>506</v>
       </c>
@@ -7845,7 +7850,7 @@
         <v>3.5861894699999999</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>507</v>
       </c>
@@ -7856,7 +7861,7 @@
         <v>3.5853453000000002</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>508</v>
       </c>
@@ -7867,7 +7872,7 @@
         <v>3.5852840600000002</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>509</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>3.58482615</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>510</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>3.5844902699999999</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>511</v>
       </c>
@@ -7900,7 +7905,7 @@
         <v>3.5844809099999999</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>512</v>
       </c>
@@ -7911,7 +7916,7 @@
         <v>3.58331036</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>513</v>
       </c>
@@ -7922,7 +7927,7 @@
         <v>3.58542213</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>514</v>
       </c>
@@ -7933,7 +7938,7 @@
         <v>3.5858571399999999</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>515</v>
       </c>
@@ -7944,7 +7949,7 @@
         <v>3.586195</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>516</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>3.5853568</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>517</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>3.5865393000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>518</v>
       </c>
@@ -7977,7 +7982,7 @@
         <v>3.5851280299999999</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>519</v>
       </c>
@@ -7988,7 +7993,7 @@
         <v>3.58454411</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>520</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>3.5851228900000001</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>521</v>
       </c>
@@ -8010,7 +8015,7 @@
         <v>3.58620071</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>522</v>
       </c>
@@ -8021,7 +8026,7 @@
         <v>3.5858579000000002</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>523</v>
       </c>
@@ -8032,7 +8037,7 @@
         <v>3.5862749300000001</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>524</v>
       </c>
@@ -8043,7 +8048,7 @@
         <v>3.58462769</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>525</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>3.58527657</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>526</v>
       </c>
@@ -8065,7 +8070,7 @@
         <v>3.5844967400000001</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>527</v>
       </c>
@@ -8076,7 +8081,7 @@
         <v>3.5862495000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>528</v>
       </c>
@@ -8087,7 +8092,7 @@
         <v>3.5844678299999999</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>529</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>3.5840977000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>530</v>
       </c>
@@ -8109,7 +8114,7 @@
         <v>3.5857342800000001</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>531</v>
       </c>
@@ -8120,7 +8125,7 @@
         <v>3.5857278699999999</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>532</v>
       </c>
@@ -8131,7 +8136,7 @@
         <v>3.5857558799999998</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>533</v>
       </c>
@@ -8142,7 +8147,7 @@
         <v>3.58511961</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>534</v>
       </c>
@@ -8153,7 +8158,7 @@
         <v>3.5857658200000002</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>535</v>
       </c>
@@ -8164,7 +8169,7 @@
         <v>3.5854392800000001</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>536</v>
       </c>
@@ -8175,7 +8180,7 @@
         <v>3.5871096699999998</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>537</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>3.5854454100000002</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>538</v>
       </c>
@@ -8197,7 +8202,7 @@
         <v>3.5855535199999999</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>539</v>
       </c>
@@ -8208,7 +8213,7 @@
         <v>3.5859024599999998</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>540</v>
       </c>
@@ -8219,7 +8224,7 @@
         <v>3.5855509699999999</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>541</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>3.5867272400000001</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>542</v>
       </c>
@@ -8241,7 +8246,7 @@
         <v>3.5858375200000001</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>543</v>
       </c>
@@ -8252,7 +8257,7 @@
         <v>3.5849520699999999</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>544</v>
       </c>
@@ -8263,7 +8268,7 @@
         <v>3.5862171599999999</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>545</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>3.5862582999999999</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>546</v>
       </c>
@@ -8285,7 +8290,7 @@
         <v>3.58467314</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>547</v>
       </c>
@@ -8296,7 +8301,7 @@
         <v>3.58548226</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>548</v>
       </c>
@@ -8307,7 +8312,7 @@
         <v>3.5858294800000001</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>549</v>
       </c>
@@ -8318,7 +8323,7 @@
         <v>3.5853405299999999</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>550</v>
       </c>
@@ -8329,7 +8334,7 @@
         <v>3.5857579300000002</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>551</v>
       </c>
@@ -8340,7 +8345,7 @@
         <v>3.5852685700000002</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>552</v>
       </c>
@@ -8351,7 +8356,7 @@
         <v>3.5838303499999999</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>553</v>
       </c>
@@ -8362,7 +8367,7 @@
         <v>3.5860282200000002</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>554</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>3.5861994899999998</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>555</v>
       </c>
@@ -8384,7 +8389,7 @@
         <v>3.5852095400000001</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>556</v>
       </c>
@@ -8395,7 +8400,7 @@
         <v>3.5846054500000002</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>557</v>
       </c>
@@ -8406,7 +8411,7 @@
         <v>3.58423793</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>558</v>
       </c>
@@ -8417,7 +8422,7 @@
         <v>3.5852562699999999</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>559</v>
       </c>
@@ -8428,7 +8433,7 @@
         <v>3.58447015</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>560</v>
       </c>
@@ -8439,7 +8444,7 @@
         <v>3.5858328099999999</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>561</v>
       </c>
@@ -8450,7 +8455,7 @@
         <v>3.58600634</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>562</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>3.5857738600000002</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>563</v>
       </c>
@@ -8472,7 +8477,7 @@
         <v>3.5845540900000001</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>564</v>
       </c>
@@ -8483,7 +8488,7 @@
         <v>3.5823813000000002</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>565</v>
       </c>
@@ -8494,7 +8499,7 @@
         <v>3.5843376</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>566</v>
       </c>
@@ -8505,7 +8510,7 @@
         <v>3.5843199399999999</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>567</v>
       </c>
@@ -8516,7 +8521,7 @@
         <v>3.5855507100000001</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>568</v>
       </c>
@@ -8527,7 +8532,7 @@
         <v>3.5861884499999999</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>569</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>3.5852941399999998</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>570</v>
       </c>
@@ -8549,7 +8554,7 @@
         <v>3.5857628799999999</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>571</v>
       </c>
@@ -8560,7 +8565,7 @@
         <v>3.58468257</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>572</v>
       </c>
@@ -8571,7 +8576,7 @@
         <v>3.5838366000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>573</v>
       </c>
@@ -8582,7 +8587,7 @@
         <v>3.58335092</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>574</v>
       </c>
@@ -8593,7 +8598,7 @@
         <v>3.5846959200000001</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>575</v>
       </c>
@@ -8604,7 +8609,7 @@
         <v>3.58638039</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>576</v>
       </c>
@@ -8615,7 +8620,7 @@
         <v>3.5854999200000002</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>577</v>
       </c>
@@ -8626,7 +8631,7 @@
         <v>3.5847547500000001</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>578</v>
       </c>
@@ -8637,7 +8642,7 @@
         <v>3.5861930399999999</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>579</v>
       </c>
@@ -8648,7 +8653,7 @@
         <v>3.58512027</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>580</v>
       </c>
@@ -8659,7 +8664,7 @@
         <v>3.5850454100000002</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>581</v>
       </c>
@@ -8670,7 +8675,7 @@
         <v>3.58562688</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>582</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>3.58540912</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>583</v>
       </c>
@@ -8692,7 +8697,7 @@
         <v>3.5856526</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>584</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>3.5855031199999998</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>585</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>3.5853617500000001</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>586</v>
       </c>
@@ -8725,7 +8730,7 @@
         <v>3.5850027500000001</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>587</v>
       </c>
@@ -8736,7 +8741,7 @@
         <v>3.5851457999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>588</v>
       </c>
@@ -8747,7 +8752,7 @@
         <v>3.5859876499999999</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>589</v>
       </c>
@@ -8758,7 +8763,7 @@
         <v>3.5853401300000001</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>590</v>
       </c>
@@ -8769,7 +8774,7 @@
         <v>3.5849456399999999</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>591</v>
       </c>
@@ -8780,7 +8785,7 @@
         <v>3.5854054099999999</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>592</v>
       </c>
@@ -8791,7 +8796,7 @@
         <v>3.5859508999999998</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>593</v>
       </c>
@@ -8802,7 +8807,7 @@
         <v>3.5844682899999998</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>594</v>
       </c>
@@ -8813,7 +8818,7 @@
         <v>3.5847029300000002</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>595</v>
       </c>
@@ -8824,7 +8829,7 @@
         <v>3.5849913600000001</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>596</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>3.5846591700000001</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>597</v>
       </c>
@@ -8846,7 +8851,7 @@
         <v>3.5868077299999999</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>598</v>
       </c>
@@ -8857,7 +8862,7 @@
         <v>3.5855679999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>599</v>
       </c>
@@ -8868,7 +8873,7 @@
         <v>3.5855652600000001</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>600</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>3.5859275099999999</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>601</v>
       </c>
@@ -8890,7 +8895,7 @@
         <v>3.58553546</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>602</v>
       </c>
@@ -8901,7 +8906,7 @@
         <v>3.5855509900000002</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>603</v>
       </c>
@@ -8912,7 +8917,7 @@
         <v>3.5851602900000001</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>604</v>
       </c>
@@ -8923,7 +8928,7 @@
         <v>3.5849108699999999</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>605</v>
       </c>
@@ -8934,7 +8939,7 @@
         <v>3.5862075299999998</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>606</v>
       </c>
@@ -8945,7 +8950,7 @@
         <v>3.5844120199999998</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>607</v>
       </c>
@@ -8956,7 +8961,7 @@
         <v>3.5846244199999999</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>608</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>3.5848601100000002</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>609</v>
       </c>
@@ -8978,7 +8983,7 @@
         <v>3.5852218800000002</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>610</v>
       </c>
@@ -8989,7 +8994,7 @@
         <v>3.5838736099999999</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>611</v>
       </c>
@@ -9000,7 +9005,7 @@
         <v>3.5844572700000001</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>612</v>
       </c>
@@ -9011,7 +9016,7 @@
         <v>3.5854572899999999</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>613</v>
       </c>
@@ -9022,7 +9027,7 @@
         <v>3.5849299299999999</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>614</v>
       </c>
@@ -9033,7 +9038,7 @@
         <v>3.58539195</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>615</v>
       </c>
@@ -9044,7 +9049,7 @@
         <v>3.58608459</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>616</v>
       </c>
@@ -9055,7 +9060,7 @@
         <v>3.5848618800000001</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>617</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>3.5858532099999998</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>618</v>
       </c>
@@ -9077,7 +9082,7 @@
         <v>3.5849040400000001</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>619</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>3.5851533500000001</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>620</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>3.58595672</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>621</v>
       </c>
@@ -9110,7 +9115,7 @@
         <v>3.58456749</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>622</v>
       </c>
@@ -9121,7 +9126,7 @@
         <v>3.5856457900000001</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>623</v>
       </c>
@@ -9132,7 +9137,7 @@
         <v>3.5851217700000002</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>624</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>3.58635963</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>625</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>3.5857305500000001</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>626</v>
       </c>
@@ -9165,7 +9170,7 @@
         <v>3.5848680499999999</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>627</v>
       </c>
@@ -9176,7 +9181,7 @@
         <v>3.5843428300000002</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>628</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>3.5808411000000002</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>629</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>3.5857975199999998</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>630</v>
       </c>
@@ -9209,7 +9214,7 @@
         <v>3.5852549900000001</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>631</v>
       </c>
@@ -9220,7 +9225,7 @@
         <v>3.5840278900000002</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>632</v>
       </c>
@@ -9231,7 +9236,7 @@
         <v>3.5859248400000001</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>633</v>
       </c>
@@ -9242,7 +9247,7 @@
         <v>3.5860090499999999</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>634</v>
       </c>
@@ -9253,7 +9258,7 @@
         <v>3.58410706</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>635</v>
       </c>
@@ -9264,7 +9269,7 @@
         <v>3.5855736899999999</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>636</v>
       </c>
@@ -9275,7 +9280,7 @@
         <v>3.5850062899999999</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>637</v>
       </c>
@@ -9286,7 +9291,7 @@
         <v>3.5842873000000002</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>638</v>
       </c>
@@ -9297,7 +9302,7 @@
         <v>3.5856225899999998</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>639</v>
       </c>
@@ -9308,7 +9313,7 @@
         <v>3.5835883900000001</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>640</v>
       </c>
@@ -9319,7 +9324,7 @@
         <v>3.5844879600000001</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>641</v>
       </c>
@@ -9330,7 +9335,7 @@
         <v>3.58366227</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>642</v>
       </c>
@@ -9341,7 +9346,7 @@
         <v>3.5845558300000002</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>643</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>3.5853401499999999</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>644</v>
       </c>
@@ -9363,7 +9368,7 @@
         <v>3.5854933600000001</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>645</v>
       </c>
@@ -9374,7 +9379,7 @@
         <v>3.58448111</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>646</v>
       </c>
@@ -9385,7 +9390,7 @@
         <v>3.5857683499999999</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>647</v>
       </c>
@@ -9396,7 +9401,7 @@
         <v>3.5843563899999999</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>648</v>
       </c>
@@ -9407,7 +9412,7 @@
         <v>3.5852742399999999</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>649</v>
       </c>
@@ -9418,7 +9423,7 @@
         <v>3.5855488900000001</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>650</v>
       </c>
@@ -9429,7 +9434,7 @@
         <v>3.5851763999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>651</v>
       </c>
@@ -9440,7 +9445,7 @@
         <v>3.5855300300000001</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>652</v>
       </c>
@@ -9451,7 +9456,7 @@
         <v>3.5854905600000002</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>653</v>
       </c>
@@ -9462,7 +9467,7 @@
         <v>3.5846687300000002</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>654</v>
       </c>
@@ -9473,7 +9478,7 @@
         <v>3.5854999300000001</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>655</v>
       </c>
@@ -9484,7 +9489,7 @@
         <v>3.5840863199999999</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>656</v>
       </c>
@@ -9495,7 +9500,7 @@
         <v>3.5844732399999999</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>657</v>
       </c>
@@ -9506,7 +9511,7 @@
         <v>3.5859037900000001</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>658</v>
       </c>
@@ -9517,7 +9522,7 @@
         <v>3.5855378099999999</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>659</v>
       </c>
@@ -9528,7 +9533,7 @@
         <v>3.5849869700000001</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>660</v>
       </c>
